--- a/InputData/trans/BLP/BAU LCFS Perc.xlsx
+++ b/InputData/trans/BLP/BAU LCFS Perc.xlsx
@@ -1,39 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BLP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BLP" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BLP BAU LCFS Percentage</t>
   </si>
   <si>
-    <t>BAU LCFS Perc</t>
+    <t>Source:</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">In Mexico there is no LCFS yet. </t>
+    <t>The National Renewable Fuel Standard is specified in gallons of renewable fuel</t>
+  </si>
+  <si>
+    <t>and a requirement for percent decarbonization of that fuel relative to a baseline</t>
+  </si>
+  <si>
+    <t>fuel type.  We convert from gallons to a share of total fuel, then multiply by the</t>
+  </si>
+  <si>
+    <t>required decarbonization percentage, to convert the policy into the form</t>
+  </si>
+  <si>
+    <t>needed for the LCFS in the EPS.</t>
+  </si>
+  <si>
+    <t>BAU LCFS Perc (dimensionless)</t>
+  </si>
+  <si>
+    <t>None needed</t>
+  </si>
+  <si>
+    <t>No BAU LCFS is specified for the US.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +115,301 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -122,41 +453,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="63">
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="50"/>
+    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="52"/>
+    <cellStyle name="20% - Accent3" xfId="31" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="54"/>
+    <cellStyle name="20% - Accent4" xfId="34" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="56"/>
+    <cellStyle name="20% - Accent5" xfId="37" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 2" xfId="58"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 2" xfId="60"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="51"/>
+    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 2" xfId="53"/>
+    <cellStyle name="40% - Accent3" xfId="32" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 2" xfId="55"/>
+    <cellStyle name="40% - Accent4" xfId="35" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 2" xfId="57"/>
+    <cellStyle name="40% - Accent5" xfId="38" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 2" xfId="59"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 2" xfId="61"/>
+    <cellStyle name="60% - Accent1 2" xfId="43"/>
+    <cellStyle name="60% - Accent2 2" xfId="44"/>
+    <cellStyle name="60% - Accent3 2" xfId="45"/>
+    <cellStyle name="60% - Accent4 2" xfId="46"/>
+    <cellStyle name="60% - Accent5 2" xfId="47"/>
+    <cellStyle name="60% - Accent6 2" xfId="48"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="30" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="33" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="14" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="62"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
     <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Good" xfId="13" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Heading 1" xfId="9" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="10" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="11" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="12" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="42"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note 2" xfId="49"/>
+    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Parent row" xfId="3"/>
     <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +806,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,28 +1015,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="56.7265625" customWidth="1"/>
+    <col min="2" max="2" width="56.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -495,229 +1090,211 @@
   </sheetPr>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AF2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
-        <v>2016</v>
-      </c>
-      <c r="C1">
-        <v>2017</v>
-      </c>
-      <c r="D1">
-        <v>2018</v>
-      </c>
-      <c r="E1">
-        <v>2019</v>
-      </c>
-      <c r="F1">
         <v>2020</v>
       </c>
-      <c r="G1">
+      <c r="C1" s="4">
         <v>2021</v>
       </c>
-      <c r="H1">
+      <c r="D1" s="4">
         <v>2022</v>
       </c>
-      <c r="I1">
+      <c r="E1" s="4">
         <v>2023</v>
       </c>
-      <c r="J1">
+      <c r="F1" s="4">
         <v>2024</v>
       </c>
-      <c r="K1">
+      <c r="G1" s="4">
         <v>2025</v>
       </c>
-      <c r="L1">
+      <c r="H1" s="4">
         <v>2026</v>
       </c>
-      <c r="M1">
+      <c r="I1" s="4">
         <v>2027</v>
       </c>
-      <c r="N1">
+      <c r="J1" s="4">
         <v>2028</v>
       </c>
-      <c r="O1">
+      <c r="K1" s="4">
         <v>2029</v>
       </c>
-      <c r="P1">
+      <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="Q1">
+      <c r="M1" s="4">
         <v>2031</v>
       </c>
-      <c r="R1">
+      <c r="N1" s="4">
         <v>2032</v>
       </c>
-      <c r="S1">
+      <c r="O1" s="4">
         <v>2033</v>
       </c>
-      <c r="T1">
+      <c r="P1" s="4">
         <v>2034</v>
       </c>
-      <c r="U1">
+      <c r="Q1" s="4">
         <v>2035</v>
       </c>
-      <c r="V1">
+      <c r="R1" s="4">
         <v>2036</v>
       </c>
-      <c r="W1">
+      <c r="S1" s="4">
         <v>2037</v>
       </c>
-      <c r="X1">
+      <c r="T1" s="4">
         <v>2038</v>
       </c>
-      <c r="Y1">
+      <c r="U1" s="4">
         <v>2039</v>
       </c>
-      <c r="Z1">
+      <c r="V1" s="4">
         <v>2040</v>
       </c>
-      <c r="AA1">
+      <c r="W1" s="4">
         <v>2041</v>
       </c>
-      <c r="AB1">
+      <c r="X1" s="4">
         <v>2042</v>
       </c>
-      <c r="AC1">
+      <c r="Y1" s="4">
         <v>2043</v>
       </c>
-      <c r="AD1">
+      <c r="Z1" s="4">
         <v>2044</v>
       </c>
-      <c r="AE1">
+      <c r="AA1" s="4">
         <v>2045</v>
       </c>
-      <c r="AF1">
+      <c r="AB1" s="4">
         <v>2046</v>
       </c>
-      <c r="AG1">
+      <c r="AC1" s="4">
         <v>2047</v>
       </c>
-      <c r="AH1">
+      <c r="AD1" s="4">
         <v>2048</v>
       </c>
-      <c r="AI1">
+      <c r="AE1" s="4">
         <v>2049</v>
       </c>
-      <c r="AJ1">
+      <c r="AF1" s="4">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0</v>
+      </c>
+      <c r="X2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/BLP/BAU LCFS Perc.xlsx
+++ b/InputData/trans/BLP/BAU LCFS Perc.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/trans/BLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28431C72-0458-3047-85AF-BD982BA766E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BLP" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>BLP BAU LCFS Percentage</t>
   </si>
@@ -64,13 +55,16 @@
   <si>
     <t>No BAU LCFS is specified for the US.</t>
   </si>
+  <si>
+    <t>No BAU LCFS is specified for the Mexico.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -644,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -652,35 +646,35 @@
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 2" xfId="50"/>
+    <cellStyle name="20% - Accent1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="52"/>
+    <cellStyle name="20% - Accent2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% - Accent3" xfId="31" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 2" xfId="54"/>
+    <cellStyle name="20% - Accent3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - Accent4" xfId="34" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 2" xfId="56"/>
+    <cellStyle name="20% - Accent4 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% - Accent5" xfId="37" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 2" xfId="58"/>
+    <cellStyle name="20% - Accent5 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 2" xfId="60"/>
+    <cellStyle name="20% - Accent6 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 2" xfId="51"/>
+    <cellStyle name="40% - Accent1 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 2" xfId="53"/>
+    <cellStyle name="40% - Accent2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% - Accent3" xfId="32" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 2" xfId="55"/>
+    <cellStyle name="40% - Accent3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% - Accent4" xfId="35" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 2" xfId="57"/>
+    <cellStyle name="40% - Accent4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% - Accent5" xfId="38" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 2" xfId="59"/>
+    <cellStyle name="40% - Accent5 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 2" xfId="61"/>
-    <cellStyle name="60% - Accent1 2" xfId="43"/>
-    <cellStyle name="60% - Accent2 2" xfId="44"/>
-    <cellStyle name="60% - Accent3 2" xfId="45"/>
-    <cellStyle name="60% - Accent4 2" xfId="46"/>
-    <cellStyle name="60% - Accent5 2" xfId="47"/>
-    <cellStyle name="60% - Accent6 2" xfId="48"/>
+    <cellStyle name="40% - Accent6 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="30" builtinId="37" customBuiltin="1"/>
@@ -688,29 +682,29 @@
     <cellStyle name="Accent5" xfId="36" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="14" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="62"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Good" xfId="13" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="Heading 1" xfId="9" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="10" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="11" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="12" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="42"/>
+    <cellStyle name="Neutral 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="49"/>
+    <cellStyle name="Note 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
@@ -804,6 +798,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -839,6 +850,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1014,24 +1042,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="56.73046875" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1039,42 +1067,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1084,22 +1117,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -1194,7 +1227,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
